--- a/Datos/Database by set/Set by name/Xlsx sets/Commander 2021 (C21).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Commander 2021 (C21).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,54 +458,341 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Breena, the Demagogue</t>
+          <t>Alibou, Ancient Witness</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Breena, the Demagogue</t>
+          <t>Ancient Den</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Osgir, the Reconstructor</t>
+          <t>Angel of the Ruins</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Osgir, the Reconstructor</t>
+          <t>Arcane Signet</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Willowdusk, Essence Seer</t>
+          <t>Archaeomancer's Map</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Willowdusk, Essence Seer</t>
+          <t>Audacious Reshapers</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zaffai, Thunder Conductor</t>
+          <t>Battlemage's Bracers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
+        <is>
+          <t>Boros Locket</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Bosh, Iron Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Breena, the Demagogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Breena, the Demagogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bronze Guardian</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Combustible Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Commander's Sphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cursed Mirror</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Daretti, Scrap Savant</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Darksteel Citadel</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Digsite Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Duplicant</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Excavation Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Faithless Looting</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Feldon of the Third Path</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Great Furnace</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hedron Archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hellkite Tyrant</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ichor Wellspring</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Laelia, the Blade Reforged</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Losheel, Clockwork Scholar</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Meteor Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mind Stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Monologue Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Myr Battlesphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Osgir, the Reconstructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Osgir, the Reconstructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Ruin Grinder</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sculpting Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Solemn Simulacrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sol Ring</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Steel Hellkite</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Steel Overseer</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Study Hall</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Thopter Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Thousand-Year Elixir</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Triplicate Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Wake the Past</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Willowdusk, Essence Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Willowdusk, Essence Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Zaffai, Thunder Conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Zaffai, Thunder Conductor</t>
         </is>

--- a/Datos/Database by set/Set by name/Xlsx sets/Commander 2021 (C21).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Commander 2021 (C21).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,343 +458,2394 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alibou, Ancient Witness</t>
+          <t>Aether Gale</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ancient Den</t>
+          <t>Aetherspouts</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Angel of the Ruins</t>
+          <t>Alibou, Ancient Witness</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Arcane Signet</t>
+          <t>Ancient Den</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Archaeomancer's Map</t>
+          <t>Angel of Serenity</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Audacious Reshapers</t>
+          <t>Angel of the Ruins</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Battlemage's Bracers</t>
+          <t>Angel of the Ruins</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Boros Locket</t>
+          <t>Apex of Power</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bosh, Iron Golem</t>
+          <t>Arashi, the Sky Asunder</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Breena, the Demagogue</t>
+          <t>Arcane Signet</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Breena, the Demagogue</t>
+          <t>Archaeomancer's Map</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bronze Guardian</t>
+          <t>Archaeomancer's Map</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Combustible Gearhulk</t>
+          <t>Audacious Reshapers</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Commander's Sphere</t>
+          <t>Audacious Reshapers</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cursed Mirror</t>
+          <t>Author of Shadows</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Daretti, Scrap Savant</t>
+          <t>Author of Shadows</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Darksteel Citadel</t>
+          <t>Barren Moor</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Digsite Engineer</t>
+          <t>Battlefield Forge</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Duplicant</t>
+          <t>Battlemage's Bracers</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Excavation Technique</t>
+          <t>Battlemage's Bracers</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Faithless Looting</t>
+          <t>Beast Within</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Feldon of the Third Path</t>
+          <t>Biomass Mutation</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Great Furnace</t>
+          <t>Blasphemous Act</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hedron Archive</t>
+          <t>Blighted Cataract</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hellkite Tyrant</t>
+          <t>Blight Mound</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ichor Wellspring</t>
+          <t>Blight Mound</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Laelia, the Blade Reforged</t>
+          <t>Bloodthirsty Blade</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Losheel, Clockwork Scholar</t>
+          <t>Blossoming Bogbeast</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Meteor Golem</t>
+          <t>Blossoming Bogbeast</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mind Stone</t>
+          <t>Bojuka Bog</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Monologue Tax</t>
+          <t>Bold Plagiarist</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Myr Battlesphere</t>
+          <t>Bold Plagiarist</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Osgir, the Reconstructor</t>
+          <t>Boreas Charger</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Osgir, the Reconstructor</t>
+          <t>Boros Charm</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ruin Grinder</t>
+          <t>Boros Garrison</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sculpting Steel</t>
+          <t>Boros Locket</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Solemn Simulacrum</t>
+          <t>Bosh, Iron Golem</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sol Ring</t>
+          <t>Brainstorm</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Steel Hellkite</t>
+          <t>Brass's Bounty</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Steel Overseer</t>
+          <t>Breena, the Demagogue</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Study Hall</t>
+          <t>Breena, the Demagogue</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Thopter Engineer</t>
+          <t>Bronze Guardian</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Thousand-Year Elixir</t>
+          <t>Bronze Guardian</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Triplicate Titan</t>
+          <t>Burnished Hart</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Wake the Past</t>
+          <t>Call the Skybreaker</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Willowdusk, Essence Seer</t>
+          <t>Caves of Koilos</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Willowdusk, Essence Seer</t>
+          <t>Chain Reaction</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Zaffai, Thunder Conductor</t>
+          <t>Champion of Wits</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>Charmbreaker Devils</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Citadel Siege</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Cleansing Nova</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Coiling Oracle</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Combat Calligrapher</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Combat Calligrapher</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Combustible Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Commander's Insight</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Commander's Insight</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Commander's Sphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Coveted Jewel</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Crackling Drake</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Crafty Cutpurse</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Creative Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Creative Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Cunning Rhetoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Cunning Rhetoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Curiosity Crafter</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Curiosity Crafter</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Cursed Mirror</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Cursed Mirror</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Curse of Disturbance</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Curse of the Swine</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Daretti, Scrap Savant</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Darksteel Citadel</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Darksteel Mutation</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Dazzling Sphinx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Dazzling Sphinx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Deathbringer Liege</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Deathbringer Regent</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Debtors' Knell</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Deekah, Fractal Theorist</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Deekah, Fractal Theorist</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Desert of the Fervent</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Desert of the Mindful</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Desolation Twin</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Digsite Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Digsite Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Dig Through Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Diluvian Primordial</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Dispatch</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Dispeller's Capsule</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Dualcaster Mage</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Duelist's Heritage</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Duplicant</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Elementalist's Palette</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Elementalist's Palette</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Elite Scaleguard</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epic Experiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Erratic Cyclops</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Esix, Fractal Bloom</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Essence Pulse</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Essence Pulse</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Etali, Primal Storm</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Excavation Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Excavation Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ezuri's Predation</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ezzaroot Channeler</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ezzaroot Channeler</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fain, the Broker</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Fain, the Broker</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Faithless Looting</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Feldon of the Third Path</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Felisa, Fang of Silverquill</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Fiery Encore</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Fiery Encore</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fiery Fall</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Forgotten Ancient</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Fractal Harness</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fractal Harness</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Garruk, Primal Hunter</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Geometric Nexus</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Geometric Nexus</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Ghostly Prison</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Gideon, Champion of Justice</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Great Furnace</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guardian Archon</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guardian Archon</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guardian Augmenter</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guardian Augmenter</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Gyome, Master Chef</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Healing Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Healing Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Hedron Archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Hellkite Igniter</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hellkite Tyrant</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Hoard-Smelter Dragon</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hornet Nest</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Hornet Queen</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Humble Defector</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Hunted Lammasu</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Hydra Broodmaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Ichor Wellspring</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Idol of Oblivion</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Incarnation Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Incarnation Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Incubation Druid</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Incubation // Incongruity</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Infernal Offering</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Inferno Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Inferno Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Inkshield</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Inkshield</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Inspiring Refrain</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Inspiring Refrain</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Izzet Boilerworks</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Izzet Signet</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Jaya Ballard</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Jor Kadeen, the Prevailer</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Kaseto, Orochi Archmage</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Kazandu Tuskcaller</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Keen Duelist</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Keen Duelist</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Key to the City</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Knight of the White Orchid</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Kodama's Reach</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Krosan Grip</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Laelia, the Blade Reforged</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Laelia, the Blade Reforged</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Living Lore</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Llanowar Reborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Losheel, Clockwork Scholar</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Losheel, Clockwork Scholar</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Lumbering Falls</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Mage-Ring Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Magister of Worth</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Mana Geyser</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Managorger Hydra</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Marshland Bloodcaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Marshland Bloodcaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Martial Impetus</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Master Biomancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Memorial to Genius</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Metallurgic Summonings</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Meteor Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Mikokoro, Center of the Sea</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Mind's Desire</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Mind Stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Monologue Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Monologue Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mosswort Bridge</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Muse Vortex</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Muse Vortex</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Mycosynth Wellspring</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Myr Battlesphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Naru Meha, Master Wizard</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Necropolis Regent</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Nils, Discipline Enforcer</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Nils, Discipline Enforcer</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Nissa's Expedition</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Novijen, Heart of Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Oblation</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Octavia, Living Thesis</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Octavia, Living Thesis</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Oran-Rief, the Vastwood</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Oreskos Explorer</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Orzhov Advokist</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Orzhov Basilica</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Orzhov Signet</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Osgir, the Reconstructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Osgir, the Reconstructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Oversimplify</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Oversimplify</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Paradox Zone</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Paradox Zone</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Parasitic Impetus</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Pendant of Prosperity</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Perplexing Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Perplexing Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Pest Infestation</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Pest Infestation</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Phyrexia's Core</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Pia Nalaar</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Pilgrim's Eye</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Plaxcaster Frogling</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Ponder</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Primal Empathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Promise of Loyalty</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Promise of Loyalty</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Pyromancer's Goggles</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Quicksmith Genius</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Radiant Performer</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Radiant Performer</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Rampaging Baloths</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Rapid Hybridization</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Reef Worm</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Reinterpret</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Reinterpret</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Reliquary Tower</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Replication Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Replication Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Return of the Wildspeaker</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Return to Dust</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Revival Experiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Revival Experiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Rionya, Fire Dancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Rionya, Fire Dancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Rite of Replication</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Rousing Refrain</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Rousing Refrain</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Rout</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Ruin Grinder</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Ruin Grinder</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Ruxa, Patient Professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Ruxa, Patient Professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Sanctum Gargoyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Scavenger Grounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Scholarship Sponsor</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Scholarship Sponsor</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Scrap Trawler</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Sculpting Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Seething Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Selfless Squire</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Sequence Engine</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Sequence Engine</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Serum Visions</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Shamanic Revelation</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Shivan Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Simic Growth Chamber</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Simic Signet</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Slayers' Stronghold</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Sly Instigator</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Sly Instigator</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Solemn Simulacrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Sol Ring</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Soul Snare</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Spawning Kraken</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Spawning Kraken</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Spectral Searchlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Spitting Image</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Sproutback Trudge</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Sproutback Trudge</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Stalking Leonin</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Steel Hellkite</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Steel Overseer</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Stinging Study</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Stinging Study</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Study Hall</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Sunbird's Invocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Sunhome, Fortress of the Legion</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Sunscorch Regent</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Sun Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Surge to Victory</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Surge to Victory</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Swarm Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Tainted Field</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Talisman of Creativity</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Talrand, Sky Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Temple of Epiphany</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Temple of Mystery</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Temple of Silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Temple of Triumph</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Tempting Contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Tempting Contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Terastodon</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Teysa, Envoy of Ghosts</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Theoretical Duplication</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Theoretical Duplication</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Thopter Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Thousand-Year Elixir</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Tivash, Gloom Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Tivash, Gloom Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Together Forever</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Tragic Arrogance</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Tranquil Thicket</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Traumatic Visions</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Treasure Cruise</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Triplicate Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Triplicate Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Trudge Garden</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Trudge Garden</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Trygon Predator</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Unstable Obelisk</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Utter End</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Veinwitch Coven</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Veinwitch Coven</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Veyran, Voice of Duality</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Victory Chimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Volcanic Vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Vow of Duty</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Wake the Past</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Wake the Past</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Wildfire Devils</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Willowdusk, Essence Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Willowdusk, Essence Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Windborn Muse</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Witch's Clinic</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Witch's Clinic</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Yavimaya Coast</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Yedora, Grave Gardener</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Yedora, Grave Gardener</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
           <t>Zaffai, Thunder Conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Zaffai, Thunder Conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Zetalpa, Primal Dawn</t>
         </is>
       </c>
     </row>

--- a/Datos/Database by set/Set by name/Xlsx sets/Commander 2021 (C21).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Commander 2021 (C21).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A345"/>
+  <dimension ref="A1:A410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,2378 +472,2833 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alibou, Ancient Witness</t>
+          <t>Ageless Entity</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ancient Den</t>
+          <t>Alhammarret's Archive</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Angel of Serenity</t>
+          <t>Alibou, Ancient Witness</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Angel of the Ruins</t>
+          <t>Alibou, Ancient Witness</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Angel of the Ruins</t>
+          <t>Ambition's Cost</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apex of Power</t>
+          <t>Ancient Craving</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Arashi, the Sky Asunder</t>
+          <t>Ancient Den</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Arcane Signet</t>
+          <t>Angel of Serenity</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Archaeomancer's Map</t>
+          <t>Angel of the Ruins</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Archaeomancer's Map</t>
+          <t>Angel of the Ruins</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Audacious Reshapers</t>
+          <t>Apex of Power</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Audacious Reshapers</t>
+          <t>Arashi, the Sky Asunder</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Author of Shadows</t>
+          <t>Arcane Signet</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Author of Shadows</t>
+          <t>Archaeomancer's Map</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Barren Moor</t>
+          <t>Archaeomancer's Map</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Battlefield Forge</t>
+          <t>Audacious Reshapers</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Battlemage's Bracers</t>
+          <t>Audacious Reshapers</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Battlemage's Bracers</t>
+          <t>Author of Shadows</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Beast Within</t>
+          <t>Author of Shadows</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Biomass Mutation</t>
+          <t>Barren Moor</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Blasphemous Act</t>
+          <t>Battlefield Forge</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Blighted Cataract</t>
+          <t>Battlemage's Bracers</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Blight Mound</t>
+          <t>Battlemage's Bracers</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Blight Mound</t>
+          <t>Beast Within</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bloodthirsty Blade</t>
+          <t>Biomass Mutation</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Blossoming Bogbeast</t>
+          <t>Blasphemous Act</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Blossoming Bogbeast</t>
+          <t>Blighted Cataract</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bojuka Bog</t>
+          <t>Blighted Woodland</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bold Plagiarist</t>
+          <t>Blight Mound</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bold Plagiarist</t>
+          <t>Blight Mound</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Boreas Charger</t>
+          <t>Bloodthirsty Aerialist</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Boros Charm</t>
+          <t>Bloodthirsty Blade</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Boros Garrison</t>
+          <t>Bloodtracker</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Boros Locket</t>
+          <t>Blossoming Bogbeast</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bosh, Iron Golem</t>
+          <t>Blossoming Bogbeast</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brainstorm</t>
+          <t>Bojuka Bog</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Brass's Bounty</t>
+          <t>Bold Plagiarist</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Breena, the Demagogue</t>
+          <t>Bold Plagiarist</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Breena, the Demagogue</t>
+          <t>Boreas Charger</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bronze Guardian</t>
+          <t>Boros Charm</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bronze Guardian</t>
+          <t>Boros Garrison</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Burnished Hart</t>
+          <t>Boros Locket</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Call the Skybreaker</t>
+          <t>Bosh, Iron Golem</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Caves of Koilos</t>
+          <t>Brainstorm</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Chain Reaction</t>
+          <t>Brass's Bounty</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Champion of Wits</t>
+          <t>Breena, the Demagogue</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Charmbreaker Devils</t>
+          <t>Breena, the Demagogue</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Citadel Siege</t>
+          <t>Bronze Guardian</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cleansing Nova</t>
+          <t>Bronze Guardian</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Coiling Oracle</t>
+          <t>Burnished Hart</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Combat Calligrapher</t>
+          <t>Call the Skybreaker</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Combat Calligrapher</t>
+          <t>Caves of Koilos</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Combustible Gearhulk</t>
+          <t>Chain Reaction</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Commander's Insight</t>
+          <t>Champion of Wits</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Commander's Insight</t>
+          <t>Charmbreaker Devils</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Commander's Sphere</t>
+          <t>Citadel Siege</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Coveted Jewel</t>
+          <t>Cleansing Nova</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Crackling Drake</t>
+          <t>Coiling Oracle</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Crafty Cutpurse</t>
+          <t>Combat Calligrapher</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Creative Technique</t>
+          <t>Combat Calligrapher</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Creative Technique</t>
+          <t>Combustible Gearhulk</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cunning Rhetoric</t>
+          <t>Commander's Insight</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cunning Rhetoric</t>
+          <t>Commander's Insight</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Curiosity Crafter</t>
+          <t>Commander's Sphere</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Curiosity Crafter</t>
+          <t>Command Tower</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cursed Mirror</t>
+          <t>Coveted Jewel</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Cursed Mirror</t>
+          <t>Crackling Drake</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Curse of Disturbance</t>
+          <t>Crafty Cutpurse</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Curse of the Swine</t>
+          <t>Creative Technique</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Daretti, Scrap Savant</t>
+          <t>Creative Technique</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Darksteel Citadel</t>
+          <t>Cultivate</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Darksteel Mutation</t>
+          <t>Cunning Rhetoric</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Dazzling Sphinx</t>
+          <t>Cunning Rhetoric</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Dazzling Sphinx</t>
+          <t>Curiosity Crafter</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Deathbringer Liege</t>
+          <t>Curiosity Crafter</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Deathbringer Regent</t>
+          <t>Cursed Mirror</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Debtors' Knell</t>
+          <t>Cursed Mirror</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Deekah, Fractal Theorist</t>
+          <t>Curse of Disturbance</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Deekah, Fractal Theorist</t>
+          <t>Curse of the Swine</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Desert of the Fervent</t>
+          <t>Damnable Pact</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Desert of the Mindful</t>
+          <t>Daretti, Scrap Savant</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Desolation Twin</t>
+          <t>Darksteel Citadel</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Digsite Engineer</t>
+          <t>Darksteel Mutation</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Digsite Engineer</t>
+          <t>Dazzling Sphinx</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Dig Through Time</t>
+          <t>Dazzling Sphinx</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Diluvian Primordial</t>
+          <t>Deadly Tempest</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Dispatch</t>
+          <t>Deathbringer Liege</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dispeller's Capsule</t>
+          <t>Deathbringer Regent</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Dualcaster Mage</t>
+          <t>Debtors' Knell</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Duelist's Heritage</t>
+          <t>Deekah, Fractal Theorist</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Duplicant</t>
+          <t>Deekah, Fractal Theorist</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Elementalist's Palette</t>
+          <t>Defiant Bloodlord</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Elementalist's Palette</t>
+          <t>Desert of the Fervent</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Elite Scaleguard</t>
+          <t>Desert of the Mindful</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epic Experiment</t>
+          <t>Desolation Twin</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Erratic Cyclops</t>
+          <t>Digsite Engineer</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Esix, Fractal Bloom</t>
+          <t>Digsite Engineer</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Essence Pulse</t>
+          <t>Dig Through Time</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Essence Pulse</t>
+          <t>Diluvian Primordial</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Etali, Primal Storm</t>
+          <t>Dispatch</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Excavation Technique</t>
+          <t>Dispeller's Capsule</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Excavation Technique</t>
+          <t>Druidic Satchel</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ezuri's Predation</t>
+          <t>Dualcaster Mage</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ezzaroot Channeler</t>
+          <t>Duelist's Heritage</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ezzaroot Channeler</t>
+          <t>Duplicant</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Fain, the Broker</t>
+          <t>Elementalist's Palette</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Fain, the Broker</t>
+          <t>Elementalist's Palette</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Faithless Looting</t>
+          <t>Elite Scaleguard</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Feldon of the Third Path</t>
+          <t>Elixir of Immortality</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Felisa, Fang of Silverquill</t>
+          <t>Epic Experiment</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fiery Encore</t>
+          <t>Epicure of Blood</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Fiery Encore</t>
+          <t>Erratic Cyclops</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Fiery Fall</t>
+          <t>Esix, Fractal Bloom</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Forgotten Ancient</t>
+          <t>Esix, Fractal Bloom</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Fractal Harness</t>
+          <t>Essence Pulse</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Fractal Harness</t>
+          <t>Essence Pulse</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Garruk, Primal Hunter</t>
+          <t>Etali, Primal Storm</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Geometric Nexus</t>
+          <t>Excavation Technique</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Geometric Nexus</t>
+          <t>Excavation Technique</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ghostly Prison</t>
+          <t>Exotic Orchard</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Gideon, Champion of Justice</t>
+          <t>Ezuri's Predation</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Great Furnace</t>
+          <t>Ezzaroot Channeler</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Guardian Archon</t>
+          <t>Ezzaroot Channeler</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Guardian Archon</t>
+          <t>Fain, the Broker</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Guardian Augmenter</t>
+          <t>Fain, the Broker</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Guardian Augmenter</t>
+          <t>Faithless Looting</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Gyome, Master Chef</t>
+          <t>Feed the Swarm</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Healing Technique</t>
+          <t>Feldon of the Third Path</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Healing Technique</t>
+          <t>Felisa, Fang of Silverquill</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Hedron Archive</t>
+          <t>Felisa, Fang of Silverquill</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Hellkite Igniter</t>
+          <t>Fiery Encore</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Hellkite Tyrant</t>
+          <t>Fiery Encore</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Hoard-Smelter Dragon</t>
+          <t>Fiery Fall</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Hornet Nest</t>
+          <t>Forgotten Ancient</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Hornet Queen</t>
+          <t>Forgotten Cave</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Humble Defector</t>
+          <t>Fractal Harness</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Hunted Lammasu</t>
+          <t>Fractal Harness</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Hydra Broodmaster</t>
+          <t>Garruk, Primal Hunter</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ichor Wellspring</t>
+          <t>Gaze of Granite</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Idol of Oblivion</t>
+          <t>Geometric Nexus</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Incarnation Technique</t>
+          <t>Geometric Nexus</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Incarnation Technique</t>
+          <t>Ghostly Prison</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Incubation Druid</t>
+          <t>Gideon, Champion of Justice</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Incubation // Incongruity</t>
+          <t>Gift of Paradise</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Infernal Offering</t>
+          <t>Gingerbread Cabin</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Inferno Project</t>
+          <t>Gluttonous Troll</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Inferno Project</t>
+          <t>Golgari Rot Farm</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Inkshield</t>
+          <t>Great Furnace</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Inkshield</t>
+          <t>Greed</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Inspiring Refrain</t>
+          <t>Guardian Archon</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Inspiring Refrain</t>
+          <t>Guardian Archon</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Izzet Boilerworks</t>
+          <t>Guardian Augmenter</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Izzet Signet</t>
+          <t>Guardian Augmenter</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Jaya Ballard</t>
+          <t>Gyome, Master Chef</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Jor Kadeen, the Prevailer</t>
+          <t>Gyome, Master Chef</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Kaseto, Orochi Archmage</t>
+          <t>Healing Technique</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Kazandu Tuskcaller</t>
+          <t>Healing Technique</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Keen Duelist</t>
+          <t>Hedron Archive</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Keen Duelist</t>
+          <t>Hellkite Igniter</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Key to the City</t>
+          <t>Hellkite Tyrant</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Knight of the White Orchid</t>
+          <t>High Market</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Kodama's Reach</t>
+          <t>Hoard-Smelter Dragon</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Krosan Grip</t>
+          <t>Hornet Nest</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Laelia, the Blade Reforged</t>
+          <t>Hornet Queen</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Laelia, the Blade Reforged</t>
+          <t>Humble Defector</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Living Lore</t>
+          <t>Hunted Lammasu</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Llanowar Reborn</t>
+          <t>Hydra Broodmaster</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Losheel, Clockwork Scholar</t>
+          <t>Ichor Wellspring</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Losheel, Clockwork Scholar</t>
+          <t>Idol of Oblivion</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Lumbering Falls</t>
+          <t>Incarnation Technique</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Mage-Ring Network</t>
+          <t>Incarnation Technique</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Magister of Worth</t>
+          <t>Incubation Druid</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Mana Geyser</t>
+          <t>Incubation // Incongruity</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Managorger Hydra</t>
+          <t>Infernal Offering</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Marshland Bloodcaster</t>
+          <t>Inferno Project</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Marshland Bloodcaster</t>
+          <t>Inferno Project</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Martial Impetus</t>
+          <t>Inkshield</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Master Biomancer</t>
+          <t>Inkshield</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Memorial to Genius</t>
+          <t>Inspiring Refrain</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Metallurgic Summonings</t>
+          <t>Inspiring Refrain</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Meteor Golem</t>
+          <t>Izzet Boilerworks</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Mikokoro, Center of the Sea</t>
+          <t>Izzet Signet</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Mind's Desire</t>
+          <t>Jaya Ballard</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Mind Stone</t>
+          <t>Jor Kadeen, the Prevailer</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Monologue Tax</t>
+          <t>Jungle Hollow</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Monologue Tax</t>
+          <t>Kaseto, Orochi Archmage</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Mosswort Bridge</t>
+          <t>Kazandu Tuskcaller</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Muse Vortex</t>
+          <t>Keen Duelist</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Muse Vortex</t>
+          <t>Keen Duelist</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Mycosynth Wellspring</t>
+          <t>Key to the City</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Myr Battlesphere</t>
+          <t>Knight of the White Orchid</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Naru Meha, Master Wizard</t>
+          <t>Kodama's Reach</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Necropolis Regent</t>
+          <t>Krosan Grip</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Nils, Discipline Enforcer</t>
+          <t>Laelia, the Blade Reforged</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Nils, Discipline Enforcer</t>
+          <t>Laelia, the Blade Reforged</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Nissa's Expedition</t>
+          <t>Leyline Prowler</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Novijen, Heart of Progress</t>
+          <t>Living Lore</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Oblation</t>
+          <t>Llanowar Reborn</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Octavia, Living Thesis</t>
+          <t>Llanowar Wastes</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Octavia, Living Thesis</t>
+          <t>Lonely Sandbar</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Oran-Rief, the Vastwood</t>
+          <t>Losheel, Clockwork Scholar</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Oreskos Explorer</t>
+          <t>Losheel, Clockwork Scholar</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Orzhov Advokist</t>
+          <t>Loxodon Warhammer</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Orzhov Basilica</t>
+          <t>Lumbering Falls</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Orzhov Signet</t>
+          <t>Mage-Ring Network</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Osgir, the Reconstructor</t>
+          <t>Magister of Worth</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Osgir, the Reconstructor</t>
+          <t>Mana Geyser</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Oversimplify</t>
+          <t>Managorger Hydra</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Oversimplify</t>
+          <t>Marshland Bloodcaster</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Paradox Zone</t>
+          <t>Marshland Bloodcaster</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Paradox Zone</t>
+          <t>Martial Impetus</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Parasitic Impetus</t>
+          <t>Master Biomancer</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Pendant of Prosperity</t>
+          <t>Memorial to Genius</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Perplexing Test</t>
+          <t>Metallurgic Summonings</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Perplexing Test</t>
+          <t>Meteor Golem</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Pest Infestation</t>
+          <t>Mikokoro, Center of the Sea</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Pest Infestation</t>
+          <t>Mind's Desire</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Phyrexia's Core</t>
+          <t>Mind Stone</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Pia Nalaar</t>
+          <t>Moldervine Reclamation</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Pilgrim's Eye</t>
+          <t>Monologue Tax</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Plaxcaster Frogling</t>
+          <t>Monologue Tax</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Ponder</t>
+          <t>Mosswort Bridge</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Primal Empathy</t>
+          <t>Muse Vortex</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Promise of Loyalty</t>
+          <t>Muse Vortex</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Promise of Loyalty</t>
+          <t>Mycosynth Wellspring</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Pyromancer's Goggles</t>
+          <t>Myr Battlesphere</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Quicksmith Genius</t>
+          <t>Myriad Landscape</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Radiant Performer</t>
+          <t>Naru Meha, Master Wizard</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Radiant Performer</t>
+          <t>Necropolis Regent</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Rampaging Baloths</t>
+          <t>Nils, Discipline Enforcer</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Rapid Hybridization</t>
+          <t>Nils, Discipline Enforcer</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Reef Worm</t>
+          <t>Nissa's Expedition</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Reinterpret</t>
+          <t>Nissa's Renewal</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Reinterpret</t>
+          <t>Novijen, Heart of Progress</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Reliquary Tower</t>
+          <t>Noxious Gearhulk</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Replication Technique</t>
+          <t>Oblation</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Replication Technique</t>
+          <t>Ob Nixilis Reignited</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Return of the Wildspeaker</t>
+          <t>Octavia, Living Thesis</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Return to Dust</t>
+          <t>Octavia, Living Thesis</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Revival Experiment</t>
+          <t>Opal Palace</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Revival Experiment</t>
+          <t>Oran-Rief, the Vastwood</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Rionya, Fire Dancer</t>
+          <t>Oreskos Explorer</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Rionya, Fire Dancer</t>
+          <t>Orzhov Advokist</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Rite of Replication</t>
+          <t>Orzhov Basilica</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Rousing Refrain</t>
+          <t>Orzhov Signet</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Rousing Refrain</t>
+          <t>Osgir, the Reconstructor</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Rout</t>
+          <t>Osgir, the Reconstructor</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Ruin Grinder</t>
+          <t>Oversimplify</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Ruin Grinder</t>
+          <t>Oversimplify</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Ruxa, Patient Professor</t>
+          <t>Paradise Plume</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Ruxa, Patient Professor</t>
+          <t>Paradox Zone</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Sanctum Gargoyle</t>
+          <t>Paradox Zone</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Scavenger Grounds</t>
+          <t>Parasitic Impetus</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Scholarship Sponsor</t>
+          <t>Pendant of Prosperity</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Scholarship Sponsor</t>
+          <t>Perplexing Test</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Scrap Trawler</t>
+          <t>Perplexing Test</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Sculpting Steel</t>
+          <t>Pest Infestation</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Seething Song</t>
+          <t>Pest Infestation</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Selfless Squire</t>
+          <t>Phyrexia's Core</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Sequence Engine</t>
+          <t>Pia Nalaar</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Sequence Engine</t>
+          <t>Pilgrim's Eye</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Serum Visions</t>
+          <t>Plaxcaster Frogling</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Shamanic Revelation</t>
+          <t>Ponder</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Shivan Reef</t>
+          <t>Primal Empathy</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Simic Growth Chamber</t>
+          <t>Pristine Talisman</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Simic Signet</t>
+          <t>Promise of Loyalty</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Slayers' Stronghold</t>
+          <t>Promise of Loyalty</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Sly Instigator</t>
+          <t>Pulse of Murasa</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Sly Instigator</t>
+          <t>Pyromancer's Goggles</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Solemn Simulacrum</t>
+          <t>Quicksmith Genius</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Sol Ring</t>
+          <t>Radiant Fountain</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Soul Snare</t>
+          <t>Radiant Performer</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Spawning Kraken</t>
+          <t>Radiant Performer</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Spawning Kraken</t>
+          <t>Rampaging Baloths</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Spectral Searchlight</t>
+          <t>Rampant Growth</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Spitting Image</t>
+          <t>Rapid Hybridization</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Sproutback Trudge</t>
+          <t>Reckless Spite</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Sproutback Trudge</t>
+          <t>Reef Worm</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Stalking Leonin</t>
+          <t>Reinterpret</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Steel Hellkite</t>
+          <t>Reinterpret</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Steel Overseer</t>
+          <t>Reliquary Tower</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Stinging Study</t>
+          <t>Replication Technique</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Stinging Study</t>
+          <t>Replication Technique</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Study Hall</t>
+          <t>Return of the Wildspeaker</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Sunbird's Invocation</t>
+          <t>Return to Dust</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Sunhome, Fortress of the Legion</t>
+          <t>Revival Experiment</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Sunscorch Regent</t>
+          <t>Revival Experiment</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Sun Titan</t>
+          <t>Rionya, Fire Dancer</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Surge to Victory</t>
+          <t>Rionya, Fire Dancer</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Surge to Victory</t>
+          <t>Rite of Replication</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Swarm Intelligence</t>
+          <t>Rogue's Passage</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Tainted Field</t>
+          <t>Rousing Refrain</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Talisman of Creativity</t>
+          <t>Rousing Refrain</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Talrand, Sky Summoner</t>
+          <t>Rout</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Temple of Epiphany</t>
+          <t>Ruin Grinder</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Temple of Mystery</t>
+          <t>Ruin Grinder</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Temple of Silence</t>
+          <t>Ruxa, Patient Professor</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Temple of Triumph</t>
+          <t>Ruxa, Patient Professor</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Tempting Contract</t>
+          <t>Sanctum Gargoyle</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Tempting Contract</t>
+          <t>Sangromancer</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Terastodon</t>
+          <t>Sanguine Bond</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Teysa, Envoy of Ghosts</t>
+          <t>Sapling of Colfenor</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Theoretical Duplication</t>
+          <t>Sapseep Forest</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Theoretical Duplication</t>
+          <t>Scavenger Grounds</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Thopter Engineer</t>
+          <t>Scholarship Sponsor</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Thousand-Year Elixir</t>
+          <t>Scholarship Sponsor</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Tivash, Gloom Summoner</t>
+          <t>Scrap Trawler</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Tivash, Gloom Summoner</t>
+          <t>Sculpting Steel</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Together Forever</t>
+          <t>Secluded Steppe</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Tragic Arrogance</t>
+          <t>Seething Song</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Tranquil Thicket</t>
+          <t>Selfless Squire</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Traumatic Visions</t>
+          <t>Sequence Engine</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Treasure Cruise</t>
+          <t>Sequence Engine</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Triplicate Titan</t>
+          <t>Serum Visions</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Triplicate Titan</t>
+          <t>Shamanic Revelation</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Trudge Garden</t>
+          <t>Shivan Reef</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Trudge Garden</t>
+          <t>Silversmote Ghoul</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Trygon Predator</t>
+          <t>Simic Growth Chamber</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Unstable Obelisk</t>
+          <t>Simic Signet</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Utter End</t>
+          <t>Slayers' Stronghold</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Veinwitch Coven</t>
+          <t>Sly Instigator</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Veinwitch Coven</t>
+          <t>Sly Instigator</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Veyran, Voice of Duality</t>
+          <t>Solemn Simulacrum</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Victory Chimes</t>
+          <t>Sol Ring</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Volcanic Vision</t>
+          <t>Soul Snare</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Vow of Duty</t>
+          <t>Spawning Kraken</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Wake the Past</t>
+          <t>Spawning Kraken</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Wake the Past</t>
+          <t>Spectral Searchlight</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Wildfire Devils</t>
+          <t>Spitting Image</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Willowdusk, Essence Seer</t>
+          <t>Sproutback Trudge</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Willowdusk, Essence Seer</t>
+          <t>Sproutback Trudge</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Windborn Muse</t>
+          <t>Stalking Leonin</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Witch's Clinic</t>
+          <t>Steel Hellkite</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Witch's Clinic</t>
+          <t>Steel Overseer</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Yavimaya Coast</t>
+          <t>Stinging Study</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Yedora, Grave Gardener</t>
+          <t>Stinging Study</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Yedora, Grave Gardener</t>
+          <t>Study Hall</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Zaffai, Thunder Conductor</t>
+          <t>Suffer the Past</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Zaffai, Thunder Conductor</t>
+          <t>Sunbird's Invocation</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
+        <is>
+          <t>Sun Droplet</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Sunhome, Fortress of the Legion</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Sunscorch Regent</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Sun Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Surge to Victory</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Surge to Victory</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Swarm Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Tainted Field</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Tainted Wood</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Talisman of Creativity</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Talisman of Resilience</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Talrand, Sky Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Taste of Death</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Temple of Epiphany</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Temple of Malady</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Temple of Mystery</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Temple of Silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Temple of the False God</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Temple of Triumph</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Tempting Contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Tempting Contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Terastodon</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Teysa, Envoy of Ghosts</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Theoretical Duplication</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Theoretical Duplication</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Thopter Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Thousand-Year Elixir</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Tivash, Gloom Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Tivash, Gloom Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Together Forever</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Tragic Arrogance</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Tranquil Thicket</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Traumatic Visions</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Treasure Cruise</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Triplicate Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Triplicate Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Trudge Garden</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Trudge Garden</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Trygon Predator</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Unstable Obelisk</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Utter End</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Vampire Nighthawk</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Veinwitch Coven</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Veinwitch Coven</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Venser's Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Verdant Sun's Avatar</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Veyran, Voice of Duality</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Veyran, Voice of Duality</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Victory Chimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Volcanic Vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Vow of Duty</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Wake the Past</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Wake the Past</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Well of Lost Dreams</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Wildfire Devils</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Willowdusk, Essence Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Willowdusk, Essence Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Windborn Muse</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Witch's Clinic</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Witch's Clinic</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Yavimaya Coast</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Yedora, Grave Gardener</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Yedora, Grave Gardener</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Zaffai, Thunder Conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Zaffai, Thunder Conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
         <is>
           <t>Zetalpa, Primal Dawn</t>
         </is>

--- a/Datos/Database by set/Set by name/Xlsx sets/Commander 2021 (C21).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Commander 2021 (C21).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A410"/>
+  <dimension ref="A1:A415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,35 +458,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aether Gale</t>
+          <t>Adrix and Nev, Twincasters</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aetherspouts</t>
+          <t>Aether Gale</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ageless Entity</t>
+          <t>Aetherspouts</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alhammarret's Archive</t>
+          <t>Ageless Entity</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Alibou, Ancient Witness</t>
+          <t>Alhammarret's Archive</t>
         </is>
       </c>
     </row>
@@ -500,35 +500,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ambition's Cost</t>
+          <t>Alibou, Ancient Witness</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ancient Craving</t>
+          <t>Ambition's Cost</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ancient Den</t>
+          <t>Ancient Craving</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Angel of Serenity</t>
+          <t>Ancient Den</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Angel of the Ruins</t>
+          <t>Angel of Serenity</t>
         </is>
       </c>
     </row>
@@ -542,28 +542,28 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Apex of Power</t>
+          <t>Angel of the Ruins</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Arashi, the Sky Asunder</t>
+          <t>Apex of Power</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Arcane Signet</t>
+          <t>Arashi, the Sky Asunder</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Archaeomancer's Map</t>
+          <t>Arcane Signet</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Audacious Reshapers</t>
+          <t>Archaeomancer's Map</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Author of Shadows</t>
+          <t>Audacious Reshapers</t>
         </is>
       </c>
     </row>
@@ -605,21 +605,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Barren Moor</t>
+          <t>Author of Shadows</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Battlefield Forge</t>
+          <t>Barren Moor</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Battlemage's Bracers</t>
+          <t>Battlefield Forge</t>
         </is>
       </c>
     </row>
@@ -633,42 +633,42 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Beast Within</t>
+          <t>Battlemage's Bracers</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass Mutation</t>
+          <t>Beast Within</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Blasphemous Act</t>
+          <t>Biomass Mutation</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Blighted Cataract</t>
+          <t>Blasphemous Act</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Blighted Woodland</t>
+          <t>Blighted Cataract</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Blight Mound</t>
+          <t>Blighted Woodland</t>
         </is>
       </c>
     </row>
@@ -682,28 +682,28 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bloodthirsty Aerialist</t>
+          <t>Blight Mound</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bloodthirsty Blade</t>
+          <t>Bloodthirsty Aerialist</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bloodtracker</t>
+          <t>Bloodthirsty Blade</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Blossoming Bogbeast</t>
+          <t>Bloodtracker</t>
         </is>
       </c>
     </row>
@@ -717,14 +717,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bojuka Bog</t>
+          <t>Blossoming Bogbeast</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bold Plagiarist</t>
+          <t>Bojuka Bog</t>
         </is>
       </c>
     </row>
@@ -738,56 +738,56 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Boreas Charger</t>
+          <t>Bold Plagiarist</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Boros Charm</t>
+          <t>Boreas Charger</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Boros Garrison</t>
+          <t>Boros Charm</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Boros Locket</t>
+          <t>Boros Garrison</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bosh, Iron Golem</t>
+          <t>Boros Locket</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Brainstorm</t>
+          <t>Bosh, Iron Golem</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Brass's Bounty</t>
+          <t>Brainstorm</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Breena, the Demagogue</t>
+          <t>Brass's Bounty</t>
         </is>
       </c>
     </row>
@@ -801,2504 +801,2539 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bronze Guardian</t>
+          <t>Breena, the Demagogue</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bronze Guardian</t>
+          <t>Breena, the Demagogue</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Burnished Hart</t>
+          <t>Bronze Guardian</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Call the Skybreaker</t>
+          <t>Bronze Guardian</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Caves of Koilos</t>
+          <t>Burnished Hart</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Chain Reaction</t>
+          <t>Call the Skybreaker</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Champion of Wits</t>
+          <t>Caves of Koilos</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Charmbreaker Devils</t>
+          <t>Chain Reaction</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Citadel Siege</t>
+          <t>Champion of Wits</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cleansing Nova</t>
+          <t>Charmbreaker Devils</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Coiling Oracle</t>
+          <t>Citadel Siege</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Combat Calligrapher</t>
+          <t>Cleansing Nova</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Combat Calligrapher</t>
+          <t>Coiling Oracle</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Combustible Gearhulk</t>
+          <t>Combat Calligrapher</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Commander's Insight</t>
+          <t>Combat Calligrapher</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Commander's Insight</t>
+          <t>Combustible Gearhulk</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Commander's Sphere</t>
+          <t>Commander's Insight</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Command Tower</t>
+          <t>Commander's Insight</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Coveted Jewel</t>
+          <t>Commander's Sphere</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Crackling Drake</t>
+          <t>Command Tower</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Crafty Cutpurse</t>
+          <t>Coveted Jewel</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Creative Technique</t>
+          <t>Crackling Drake</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Creative Technique</t>
+          <t>Crafty Cutpurse</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cultivate</t>
+          <t>Creative Technique</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cunning Rhetoric</t>
+          <t>Creative Technique</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cunning Rhetoric</t>
+          <t>Cultivate</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Curiosity Crafter</t>
+          <t>Cunning Rhetoric</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Curiosity Crafter</t>
+          <t>Cunning Rhetoric</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Cursed Mirror</t>
+          <t>Curiosity Crafter</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cursed Mirror</t>
+          <t>Curiosity Crafter</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Curse of Disturbance</t>
+          <t>Cursed Mirror</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Curse of the Swine</t>
+          <t>Cursed Mirror</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Damnable Pact</t>
+          <t>Curse of Disturbance</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Daretti, Scrap Savant</t>
+          <t>Curse of the Swine</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Darksteel Citadel</t>
+          <t>Damnable Pact</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Darksteel Mutation</t>
+          <t>Daretti, Scrap Savant</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Dazzling Sphinx</t>
+          <t>Darksteel Citadel</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Dazzling Sphinx</t>
+          <t>Darksteel Mutation</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Deadly Tempest</t>
+          <t>Dazzling Sphinx</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Deathbringer Liege</t>
+          <t>Dazzling Sphinx</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Deathbringer Regent</t>
+          <t>Deadly Tempest</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Debtors' Knell</t>
+          <t>Deathbringer Liege</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Deekah, Fractal Theorist</t>
+          <t>Deathbringer Regent</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Deekah, Fractal Theorist</t>
+          <t>Debtors' Knell</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Defiant Bloodlord</t>
+          <t>Deekah, Fractal Theorist</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Desert of the Fervent</t>
+          <t>Deekah, Fractal Theorist</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Desert of the Mindful</t>
+          <t>Defiant Bloodlord</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Desolation Twin</t>
+          <t>Desert of the Fervent</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Digsite Engineer</t>
+          <t>Desert of the Mindful</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Digsite Engineer</t>
+          <t>Desolation Twin</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Dig Through Time</t>
+          <t>Digsite Engineer</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Diluvian Primordial</t>
+          <t>Digsite Engineer</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Dispatch</t>
+          <t>Dig Through Time</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Dispeller's Capsule</t>
+          <t>Diluvian Primordial</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Druidic Satchel</t>
+          <t>Dispatch</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Dualcaster Mage</t>
+          <t>Dispeller's Capsule</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Duelist's Heritage</t>
+          <t>Druidic Satchel</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Duplicant</t>
+          <t>Dualcaster Mage</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Elementalist's Palette</t>
+          <t>Duelist's Heritage</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Elementalist's Palette</t>
+          <t>Duplicant</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Elite Scaleguard</t>
+          <t>Elementalist's Palette</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Elixir of Immortality</t>
+          <t>Elementalist's Palette</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epic Experiment</t>
+          <t>Elite Scaleguard</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epicure of Blood</t>
+          <t>Elixir of Immortality</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Erratic Cyclops</t>
+          <t>Epic Experiment</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Esix, Fractal Bloom</t>
+          <t>Epicure of Blood</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Esix, Fractal Bloom</t>
+          <t>Erratic Cyclops</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Essence Pulse</t>
+          <t>Esix, Fractal Bloom</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Essence Pulse</t>
+          <t>Esix, Fractal Bloom</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Etali, Primal Storm</t>
+          <t>Essence Pulse</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Excavation Technique</t>
+          <t>Essence Pulse</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Excavation Technique</t>
+          <t>Etali, Primal Storm</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Exotic Orchard</t>
+          <t>Excavation Technique</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ezuri's Predation</t>
+          <t>Excavation Technique</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ezzaroot Channeler</t>
+          <t>Exotic Orchard</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ezzaroot Channeler</t>
+          <t>Ezuri's Predation</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fain, the Broker</t>
+          <t>Ezzaroot Channeler</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Fain, the Broker</t>
+          <t>Ezzaroot Channeler</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Faithless Looting</t>
+          <t>Fain, the Broker</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Feed the Swarm</t>
+          <t>Fain, the Broker</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Feldon of the Third Path</t>
+          <t>Faithless Looting</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Felisa, Fang of Silverquill</t>
+          <t>Feed the Swarm</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Felisa, Fang of Silverquill</t>
+          <t>Feldon of the Third Path</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Fiery Encore</t>
+          <t>Felisa, Fang of Silverquill</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Fiery Encore</t>
+          <t>Felisa, Fang of Silverquill</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Fiery Fall</t>
+          <t>Fiery Encore</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Forgotten Ancient</t>
+          <t>Fiery Encore</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Forgotten Cave</t>
+          <t>Fiery Fall</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Fractal Harness</t>
+          <t>Forgotten Ancient</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Fractal Harness</t>
+          <t>Forgotten Cave</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Garruk, Primal Hunter</t>
+          <t>Fractal Harness</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Gaze of Granite</t>
+          <t>Fractal Harness</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Geometric Nexus</t>
+          <t>Garruk, Primal Hunter</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Geometric Nexus</t>
+          <t>Gaze of Granite</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ghostly Prison</t>
+          <t>Geometric Nexus</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Gideon, Champion of Justice</t>
+          <t>Geometric Nexus</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Gift of Paradise</t>
+          <t>Ghostly Prison</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Gingerbread Cabin</t>
+          <t>Gideon, Champion of Justice</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Gluttonous Troll</t>
+          <t>Gift of Paradise</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Golgari Rot Farm</t>
+          <t>Gingerbread Cabin</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Great Furnace</t>
+          <t>Gluttonous Troll</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Greed</t>
+          <t>Golgari Rot Farm</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Guardian Archon</t>
+          <t>Great Furnace</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Guardian Archon</t>
+          <t>Greed</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Guardian Augmenter</t>
+          <t>Guardian Archon</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Guardian Augmenter</t>
+          <t>Guardian Archon</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Gyome, Master Chef</t>
+          <t>Guardian Augmenter</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Gyome, Master Chef</t>
+          <t>Guardian Augmenter</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Healing Technique</t>
+          <t>Gyome, Master Chef</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Healing Technique</t>
+          <t>Gyome, Master Chef</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Hedron Archive</t>
+          <t>Healing Technique</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hellkite Igniter</t>
+          <t>Healing Technique</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Hellkite Tyrant</t>
+          <t>Hedron Archive</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>High Market</t>
+          <t>Hellkite Igniter</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Hoard-Smelter Dragon</t>
+          <t>Hellkite Tyrant</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Hornet Nest</t>
+          <t>High Market</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Hornet Queen</t>
+          <t>Hoard-Smelter Dragon</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Humble Defector</t>
+          <t>Hornet Nest</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Hunted Lammasu</t>
+          <t>Hornet Queen</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Hydra Broodmaster</t>
+          <t>Humble Defector</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Ichor Wellspring</t>
+          <t>Hunted Lammasu</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Idol of Oblivion</t>
+          <t>Hydra Broodmaster</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Incarnation Technique</t>
+          <t>Ichor Wellspring</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Incarnation Technique</t>
+          <t>Idol of Oblivion</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Incubation Druid</t>
+          <t>Incarnation Technique</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Incubation // Incongruity</t>
+          <t>Incarnation Technique</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Infernal Offering</t>
+          <t>Incubation Druid</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Inferno Project</t>
+          <t>Incubation // Incongruity</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Inferno Project</t>
+          <t>Infernal Offering</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Inkshield</t>
+          <t>Inferno Project</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Inkshield</t>
+          <t>Inferno Project</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Inspiring Refrain</t>
+          <t>Inkshield</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Inspiring Refrain</t>
+          <t>Inkshield</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Izzet Boilerworks</t>
+          <t>Inspiring Refrain</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Izzet Signet</t>
+          <t>Inspiring Refrain</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Jaya Ballard</t>
+          <t>Izzet Boilerworks</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Jor Kadeen, the Prevailer</t>
+          <t>Izzet Signet</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Jungle Hollow</t>
+          <t>Jaya Ballard</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Kaseto, Orochi Archmage</t>
+          <t>Jor Kadeen, the Prevailer</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Kazandu Tuskcaller</t>
+          <t>Jungle Hollow</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Keen Duelist</t>
+          <t>Kaseto, Orochi Archmage</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Keen Duelist</t>
+          <t>Kazandu Tuskcaller</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Key to the City</t>
+          <t>Keen Duelist</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Knight of the White Orchid</t>
+          <t>Keen Duelist</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Kodama's Reach</t>
+          <t>Key to the City</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Krosan Grip</t>
+          <t>Knight of the White Orchid</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Laelia, the Blade Reforged</t>
+          <t>Kodama's Reach</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Laelia, the Blade Reforged</t>
+          <t>Krosan Grip</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Leyline Prowler</t>
+          <t>Laelia, the Blade Reforged</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Living Lore</t>
+          <t>Laelia, the Blade Reforged</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Llanowar Reborn</t>
+          <t>Leyline Prowler</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Llanowar Wastes</t>
+          <t>Living Lore</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Lonely Sandbar</t>
+          <t>Llanowar Reborn</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Losheel, Clockwork Scholar</t>
+          <t>Llanowar Wastes</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Losheel, Clockwork Scholar</t>
+          <t>Lonely Sandbar</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Loxodon Warhammer</t>
+          <t>Losheel, Clockwork Scholar</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Lumbering Falls</t>
+          <t>Losheel, Clockwork Scholar</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Mage-Ring Network</t>
+          <t>Loxodon Warhammer</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Magister of Worth</t>
+          <t>Lumbering Falls</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Mana Geyser</t>
+          <t>Mage-Ring Network</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Managorger Hydra</t>
+          <t>Magister of Worth</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Marshland Bloodcaster</t>
+          <t>Mana Geyser</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Marshland Bloodcaster</t>
+          <t>Managorger Hydra</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Martial Impetus</t>
+          <t>Marshland Bloodcaster</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Master Biomancer</t>
+          <t>Marshland Bloodcaster</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Memorial to Genius</t>
+          <t>Martial Impetus</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Metallurgic Summonings</t>
+          <t>Master Biomancer</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Meteor Golem</t>
+          <t>Memorial to Genius</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Mikokoro, Center of the Sea</t>
+          <t>Metallurgic Summonings</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Mind's Desire</t>
+          <t>Meteor Golem</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Mind Stone</t>
+          <t>Mikokoro, Center of the Sea</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Moldervine Reclamation</t>
+          <t>Mind's Desire</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Monologue Tax</t>
+          <t>Mind Stone</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Monologue Tax</t>
+          <t>Moldervine Reclamation</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Mosswort Bridge</t>
+          <t>Monologue Tax</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Muse Vortex</t>
+          <t>Monologue Tax</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Muse Vortex</t>
+          <t>Mosswort Bridge</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Mycosynth Wellspring</t>
+          <t>Muse Vortex</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Myr Battlesphere</t>
+          <t>Muse Vortex</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Myriad Landscape</t>
+          <t>Mycosynth Wellspring</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Naru Meha, Master Wizard</t>
+          <t>Myr Battlesphere</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Necropolis Regent</t>
+          <t>Myriad Landscape</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Nils, Discipline Enforcer</t>
+          <t>Naru Meha, Master Wizard</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Nils, Discipline Enforcer</t>
+          <t>Necropolis Regent</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Nissa's Expedition</t>
+          <t>Nils, Discipline Enforcer</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Nissa's Renewal</t>
+          <t>Nils, Discipline Enforcer</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Novijen, Heart of Progress</t>
+          <t>Nissa's Expedition</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Noxious Gearhulk</t>
+          <t>Nissa's Renewal</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Oblation</t>
+          <t>Novijen, Heart of Progress</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Ob Nixilis Reignited</t>
+          <t>Noxious Gearhulk</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Octavia, Living Thesis</t>
+          <t>Oblation</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Octavia, Living Thesis</t>
+          <t>Ob Nixilis Reignited</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Opal Palace</t>
+          <t>Octavia, Living Thesis</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Oran-Rief, the Vastwood</t>
+          <t>Octavia, Living Thesis</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Oreskos Explorer</t>
+          <t>Opal Palace</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Orzhov Advokist</t>
+          <t>Oran-Rief, the Vastwood</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Orzhov Basilica</t>
+          <t>Oreskos Explorer</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Orzhov Signet</t>
+          <t>Orzhov Advokist</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Osgir, the Reconstructor</t>
+          <t>Orzhov Basilica</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Osgir, the Reconstructor</t>
+          <t>Orzhov Signet</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Oversimplify</t>
+          <t>Osgir, the Reconstructor</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Oversimplify</t>
+          <t>Osgir, the Reconstructor</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Paradise Plume</t>
+          <t>Osgir, the Reconstructor</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Paradox Zone</t>
+          <t>Oversimplify</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Paradox Zone</t>
+          <t>Oversimplify</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Parasitic Impetus</t>
+          <t>Paradise Plume</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Pendant of Prosperity</t>
+          <t>Paradox Zone</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Perplexing Test</t>
+          <t>Paradox Zone</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Perplexing Test</t>
+          <t>Parasitic Impetus</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Pest Infestation</t>
+          <t>Pendant of Prosperity</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Pest Infestation</t>
+          <t>Perplexing Test</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Phyrexia's Core</t>
+          <t>Perplexing Test</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Pia Nalaar</t>
+          <t>Pest Infestation</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Pilgrim's Eye</t>
+          <t>Pest Infestation</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Plaxcaster Frogling</t>
+          <t>Phyrexia's Core</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Ponder</t>
+          <t>Pia Nalaar</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Primal Empathy</t>
+          <t>Pilgrim's Eye</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Pristine Talisman</t>
+          <t>Plaxcaster Frogling</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Promise of Loyalty</t>
+          <t>Ponder</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Promise of Loyalty</t>
+          <t>Primal Empathy</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Pulse of Murasa</t>
+          <t>Pristine Talisman</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Pyromancer's Goggles</t>
+          <t>Promise of Loyalty</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Quicksmith Genius</t>
+          <t>Promise of Loyalty</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Radiant Fountain</t>
+          <t>Pulse of Murasa</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Radiant Performer</t>
+          <t>Pyromancer's Goggles</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Radiant Performer</t>
+          <t>Quicksmith Genius</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Rampaging Baloths</t>
+          <t>Radiant Fountain</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Rampant Growth</t>
+          <t>Radiant Performer</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Rapid Hybridization</t>
+          <t>Radiant Performer</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Reckless Spite</t>
+          <t>Rampaging Baloths</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Reef Worm</t>
+          <t>Rampant Growth</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Reinterpret</t>
+          <t>Rapid Hybridization</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Reinterpret</t>
+          <t>Reckless Spite</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Reliquary Tower</t>
+          <t>Reef Worm</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Replication Technique</t>
+          <t>Reinterpret</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Replication Technique</t>
+          <t>Reinterpret</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Return of the Wildspeaker</t>
+          <t>Reliquary Tower</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Return to Dust</t>
+          <t>Replication Technique</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Revival Experiment</t>
+          <t>Replication Technique</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Revival Experiment</t>
+          <t>Return of the Wildspeaker</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Rionya, Fire Dancer</t>
+          <t>Return to Dust</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Rionya, Fire Dancer</t>
+          <t>Revival Experiment</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Rite of Replication</t>
+          <t>Revival Experiment</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Rogue's Passage</t>
+          <t>Rionya, Fire Dancer</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Rousing Refrain</t>
+          <t>Rionya, Fire Dancer</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Rousing Refrain</t>
+          <t>Rite of Replication</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Rout</t>
+          <t>Rogue's Passage</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Ruin Grinder</t>
+          <t>Rousing Refrain</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Ruin Grinder</t>
+          <t>Rousing Refrain</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Ruxa, Patient Professor</t>
+          <t>Rout</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Ruxa, Patient Professor</t>
+          <t>Ruin Grinder</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Sanctum Gargoyle</t>
+          <t>Ruin Grinder</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Sangromancer</t>
+          <t>Ruxa, Patient Professor</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Sanguine Bond</t>
+          <t>Ruxa, Patient Professor</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Sapling of Colfenor</t>
+          <t>Sanctum Gargoyle</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Sapseep Forest</t>
+          <t>Sangromancer</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Scavenger Grounds</t>
+          <t>Sanguine Bond</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Scholarship Sponsor</t>
+          <t>Sapling of Colfenor</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Scholarship Sponsor</t>
+          <t>Sapseep Forest</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Scrap Trawler</t>
+          <t>Scavenger Grounds</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Sculpting Steel</t>
+          <t>Scholarship Sponsor</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Secluded Steppe</t>
+          <t>Scholarship Sponsor</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Seething Song</t>
+          <t>Scrap Trawler</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Selfless Squire</t>
+          <t>Sculpting Steel</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Sequence Engine</t>
+          <t>Secluded Steppe</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Sequence Engine</t>
+          <t>Seething Song</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Serum Visions</t>
+          <t>Selfless Squire</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Shamanic Revelation</t>
+          <t>Sequence Engine</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Shivan Reef</t>
+          <t>Sequence Engine</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Silversmote Ghoul</t>
+          <t>Serum Visions</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Simic Growth Chamber</t>
+          <t>Shamanic Revelation</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Simic Signet</t>
+          <t>Shivan Reef</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Slayers' Stronghold</t>
+          <t>Silversmote Ghoul</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Sly Instigator</t>
+          <t>Simic Growth Chamber</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Sly Instigator</t>
+          <t>Simic Signet</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Solemn Simulacrum</t>
+          <t>Slayers' Stronghold</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Sol Ring</t>
+          <t>Sly Instigator</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Soul Snare</t>
+          <t>Sly Instigator</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Spawning Kraken</t>
+          <t>Solemn Simulacrum</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Spawning Kraken</t>
+          <t>Sol Ring</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Spectral Searchlight</t>
+          <t>Soul Snare</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Spitting Image</t>
+          <t>Spawning Kraken</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Sproutback Trudge</t>
+          <t>Spawning Kraken</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Sproutback Trudge</t>
+          <t>Spectral Searchlight</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Stalking Leonin</t>
+          <t>Spitting Image</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Steel Hellkite</t>
+          <t>Sproutback Trudge</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Steel Overseer</t>
+          <t>Sproutback Trudge</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Stinging Study</t>
+          <t>Stalking Leonin</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Stinging Study</t>
+          <t>Steel Hellkite</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Study Hall</t>
+          <t>Steel Overseer</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Suffer the Past</t>
+          <t>Stinging Study</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Sunbird's Invocation</t>
+          <t>Stinging Study</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Sun Droplet</t>
+          <t>Study Hall</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Sunhome, Fortress of the Legion</t>
+          <t>Suffer the Past</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Sunscorch Regent</t>
+          <t>Sunbird's Invocation</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Sun Titan</t>
+          <t>Sun Droplet</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Surge to Victory</t>
+          <t>Sunhome, Fortress of the Legion</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Surge to Victory</t>
+          <t>Sunscorch Regent</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Swarm Intelligence</t>
+          <t>Sun Titan</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Tainted Field</t>
+          <t>Surge to Victory</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Tainted Wood</t>
+          <t>Surge to Victory</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Talisman of Creativity</t>
+          <t>Swarm Intelligence</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Talisman of Resilience</t>
+          <t>Tainted Field</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Talrand, Sky Summoner</t>
+          <t>Tainted Wood</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Taste of Death</t>
+          <t>Talisman of Creativity</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Temple of Epiphany</t>
+          <t>Talisman of Resilience</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Temple of Malady</t>
+          <t>Talrand, Sky Summoner</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Temple of Mystery</t>
+          <t>Taste of Death</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Temple of Silence</t>
+          <t>Temple of Epiphany</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Temple of the False God</t>
+          <t>Temple of Malady</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Temple of Triumph</t>
+          <t>Temple of Mystery</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Tempting Contract</t>
+          <t>Temple of Silence</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Tempting Contract</t>
+          <t>Temple of the False God</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Terastodon</t>
+          <t>Temple of Triumph</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Teysa, Envoy of Ghosts</t>
+          <t>Tempting Contract</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Theoretical Duplication</t>
+          <t>Tempting Contract</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Theoretical Duplication</t>
+          <t>Terastodon</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Thopter Engineer</t>
+          <t>Teysa, Envoy of Ghosts</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Thousand-Year Elixir</t>
+          <t>Theoretical Duplication</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Tivash, Gloom Summoner</t>
+          <t>Theoretical Duplication</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Tivash, Gloom Summoner</t>
+          <t>Thopter Engineer</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Together Forever</t>
+          <t>Thousand-Year Elixir</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Tragic Arrogance</t>
+          <t>Tivash, Gloom Summoner</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Tranquil Thicket</t>
+          <t>Tivash, Gloom Summoner</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Traumatic Visions</t>
+          <t>Together Forever</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Treasure Cruise</t>
+          <t>Tragic Arrogance</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Triplicate Titan</t>
+          <t>Tranquil Thicket</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Triplicate Titan</t>
+          <t>Traumatic Visions</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Trudge Garden</t>
+          <t>Treasure Cruise</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Trudge Garden</t>
+          <t>Triplicate Titan</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Trygon Predator</t>
+          <t>Triplicate Titan</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Unstable Obelisk</t>
+          <t>Trudge Garden</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Utter End</t>
+          <t>Trudge Garden</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Vampire Nighthawk</t>
+          <t>Trygon Predator</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Veinwitch Coven</t>
+          <t>Unstable Obelisk</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Veinwitch Coven</t>
+          <t>Utter End</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Venser's Journal</t>
+          <t>Vampire Nighthawk</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Verdant Sun's Avatar</t>
+          <t>Veinwitch Coven</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Veyran, Voice of Duality</t>
+          <t>Veinwitch Coven</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Veyran, Voice of Duality</t>
+          <t>Venser's Journal</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Victory Chimes</t>
+          <t>Verdant Sun's Avatar</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Volcanic Vision</t>
+          <t>Veyran, Voice of Duality</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Vow of Duty</t>
+          <t>Veyran, Voice of Duality</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Wake the Past</t>
+          <t>Victory Chimes</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Wake the Past</t>
+          <t>Volcanic Vision</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Well of Lost Dreams</t>
+          <t>Vow of Duty</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Wildfire Devils</t>
+          <t>Wake the Past</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Willowdusk, Essence Seer</t>
+          <t>Wake the Past</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Willowdusk, Essence Seer</t>
+          <t>Well of Lost Dreams</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Windborn Muse</t>
+          <t>Wildfire Devils</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Witch's Clinic</t>
+          <t>Willowdusk, Essence Seer</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Witch's Clinic</t>
+          <t>Willowdusk, Essence Seer</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Yavimaya Coast</t>
+          <t>Willowdusk, Essence Seer</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Yedora, Grave Gardener</t>
+          <t>Windborn Muse</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Yedora, Grave Gardener</t>
+          <t>Witch's Clinic</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Zaffai, Thunder Conductor</t>
+          <t>Witch's Clinic</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Zaffai, Thunder Conductor</t>
+          <t>Yavimaya Coast</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
+        <is>
+          <t>Yedora, Grave Gardener</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Yedora, Grave Gardener</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Zaffai, Thunder Conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Zaffai, Thunder Conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Zaffai, Thunder Conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
         <is>
           <t>Zetalpa, Primal Dawn</t>
         </is>

--- a/Datos/Database by set/Set by name/Xlsx sets/Commander 2021 (C21).xlsx
+++ b/Datos/Database by set/Set by name/Xlsx sets/Commander 2021 (C21).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,2867 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Adrix and Nev, Twincasters</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Adrix and Nev, Twincasters</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aether Gale</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aetherspouts</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ageless Entity</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Alhammarret's Archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Alibou, Ancient Witness</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Alibou, Ancient Witness</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ambition's Cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ancient Craving</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ancient Den</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Angel of Serenity</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Angel of the Ruins</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Angel of the Ruins</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Apex of Power</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Arashi, the Sky Asunder</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Arcane Signet</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Archaeomancer's Map</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Archaeomancer's Map</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Audacious Reshapers</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Audacious Reshapers</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Author of Shadows</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Author of Shadows</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Barren Moor</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Battlefield Forge</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Battlemage's Bracers</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Battlemage's Bracers</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Beast Within</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Biomass Mutation</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Blasphemous Act</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Blighted Cataract</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Blighted Woodland</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Blight Mound</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Blight Mound</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Bloodthirsty Aerialist</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Bloodthirsty Blade</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Bloodtracker</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Blossoming Bogbeast</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Blossoming Bogbeast</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Bojuka Bog</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Bold Plagiarist</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Bold Plagiarist</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Boreas Charger</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Boros Charm</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Boros Garrison</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Boros Locket</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Bosh, Iron Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Brainstorm</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Brass's Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Breena, the Demagogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Breena, the Demagogue</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Bronze Guardian</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Bronze Guardian</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Burnished Hart</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Call the Skybreaker</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Caves of Koilos</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chain Reaction</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Champion of Wits</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Charmbreaker Devils</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Citadel Siege</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Cleansing Nova</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Coiling Oracle</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Combat Calligrapher</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Combat Calligrapher</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Combustible Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Commander's Insight</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Commander's Insight</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Commander's Sphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Command Tower</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Coveted Jewel</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Crackling Drake</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Crafty Cutpurse</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Creative Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Creative Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Cultivate</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Cunning Rhetoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Cunning Rhetoric</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Curiosity Crafter</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Curiosity Crafter</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Cursed Mirror</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Cursed Mirror</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Curse of Disturbance</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Curse of the Swine</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Damnable Pact</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Daretti, Scrap Savant</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Darksteel Citadel</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Darksteel Mutation</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Dazzling Sphinx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Dazzling Sphinx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Deadly Tempest</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Deathbringer Liege</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Deathbringer Regent</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Debtors' Knell</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Deekah, Fractal Theorist</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Deekah, Fractal Theorist</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Defiant Bloodlord</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Desert of the Fervent</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Desert of the Mindful</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Desolation Twin</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Digsite Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Digsite Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Dig Through Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Diluvian Primordial</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Dispatch</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Dispeller's Capsule</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Druidic Satchel</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Dualcaster Mage</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Duelist's Heritage</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Duplicant</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Elementalist's Palette</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Elementalist's Palette</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Elite Scaleguard</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Elixir of Immortality</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epic Experiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epicure of Blood</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Erratic Cyclops</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Esix, Fractal Bloom</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Esix, Fractal Bloom</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Essence Pulse</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Essence Pulse</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Etali, Primal Storm</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Excavation Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Excavation Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Exotic Orchard</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Ezuri's Predation</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Ezzaroot Channeler</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Ezzaroot Channeler</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Fain, the Broker</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Fain, the Broker</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Faithless Looting</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Feed the Swarm</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Feldon of the Third Path</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Felisa, Fang of Silverquill</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Felisa, Fang of Silverquill</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Fiery Encore</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Fiery Encore</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Fiery Fall</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Forgotten Ancient</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Forgotten Cave</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Fractal Harness</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Fractal Harness</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Garruk, Primal Hunter</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Gaze of Granite</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Geometric Nexus</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Geometric Nexus</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Ghostly Prison</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Gideon, Champion of Justice</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Gift of Paradise</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Gingerbread Cabin</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Gluttonous Troll</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Golgari Rot Farm</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Great Furnace</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Greed</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guardian Archon</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guardian Archon</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guardian Augmenter</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guardian Augmenter</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Gyome, Master Chef</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Gyome, Master Chef</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Healing Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Healing Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Hedron Archive</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Hellkite Igniter</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Hellkite Tyrant</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>High Market</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Hoard-Smelter Dragon</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Hornet Nest</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Hornet Queen</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Humble Defector</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Hunted Lammasu</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Hydra Broodmaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Ichor Wellspring</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Idol of Oblivion</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Incarnation Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Incarnation Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Incubation Druid</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Incubation // Incongruity</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Infernal Offering</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Inferno Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Inferno Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Inkshield</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Inkshield</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Inspiring Refrain</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Inspiring Refrain</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Izzet Boilerworks</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Izzet Signet</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Jaya Ballard</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Jor Kadeen, the Prevailer</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Jungle Hollow</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Kaseto, Orochi Archmage</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Kazandu Tuskcaller</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Keen Duelist</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Keen Duelist</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Key to the City</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Knight of the White Orchid</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Kodama's Reach</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Krosan Grip</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Laelia, the Blade Reforged</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Laelia, the Blade Reforged</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Leyline Prowler</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Living Lore</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Llanowar Reborn</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Llanowar Wastes</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Lonely Sandbar</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Losheel, Clockwork Scholar</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Losheel, Clockwork Scholar</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Loxodon Warhammer</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Lumbering Falls</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Mage-Ring Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Magister of Worth</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Mana Geyser</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Managorger Hydra</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Marshland Bloodcaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Marshland Bloodcaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Martial Impetus</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Master Biomancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Memorial to Genius</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Metallurgic Summonings</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Meteor Golem</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Mikokoro, Center of the Sea</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mind's Desire</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Mind Stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Moldervine Reclamation</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Monologue Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Monologue Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Mosswort Bridge</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Muse Vortex</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Muse Vortex</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Mycosynth Wellspring</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Myr Battlesphere</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Myriad Landscape</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Naru Meha, Master Wizard</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Necropolis Regent</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Nils, Discipline Enforcer</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Nils, Discipline Enforcer</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Nissa's Expedition</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Nissa's Renewal</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Novijen, Heart of Progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Noxious Gearhulk</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Oblation</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Ob Nixilis Reignited</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Octavia, Living Thesis</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Octavia, Living Thesis</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Opal Palace</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Oran-Rief, the Vastwood</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Oreskos Explorer</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Orzhov Advokist</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Orzhov Basilica</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Orzhov Signet</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Osgir, the Reconstructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Osgir, the Reconstructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Oversimplify</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Oversimplify</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Paradise Plume</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Paradox Zone</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Paradox Zone</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Parasitic Impetus</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Pendant of Prosperity</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Perplexing Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Perplexing Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Pest Infestation</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Pest Infestation</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Phyrexia's Core</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Pia Nalaar</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Pilgrim's Eye</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Plaxcaster Frogling</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Ponder</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Primal Empathy</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Pristine Talisman</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Promise of Loyalty</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Promise of Loyalty</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Pulse of Murasa</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Pyromancer's Goggles</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Quicksmith Genius</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Radiant Fountain</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Radiant Performer</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Radiant Performer</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Rampaging Baloths</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Rampant Growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Rapid Hybridization</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Reckless Spite</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Reef Worm</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Reinterpret</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Reinterpret</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Reliquary Tower</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Replication Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Replication Technique</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Return of the Wildspeaker</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Return to Dust</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Revival Experiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Revival Experiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Rionya, Fire Dancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Rionya, Fire Dancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Rite of Replication</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Rogue's Passage</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Rousing Refrain</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Rousing Refrain</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Rout</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Ruin Grinder</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Ruin Grinder</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Ruxa, Patient Professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Ruxa, Patient Professor</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Sanctum Gargoyle</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Sangromancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Sanguine Bond</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Sapling of Colfenor</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Sapseep Forest</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Scavenger Grounds</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Scholarship Sponsor</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Scholarship Sponsor</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Scrap Trawler</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Sculpting Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Secluded Steppe</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Seething Song</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Selfless Squire</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Sequence Engine</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Sequence Engine</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Serum Visions</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Shamanic Revelation</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Shivan Reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Silversmote Ghoul</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Simic Growth Chamber</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Simic Signet</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Slayers' Stronghold</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Sly Instigator</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Sly Instigator</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Solemn Simulacrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Sol Ring</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Soul Snare</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Spawning Kraken</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Spawning Kraken</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Spectral Searchlight</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Spitting Image</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Sproutback Trudge</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Sproutback Trudge</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Stalking Leonin</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Steel Hellkite</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Steel Overseer</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Stinging Study</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Stinging Study</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Study Hall</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Suffer the Past</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Sunbird's Invocation</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Sun Droplet</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Sunhome, Fortress of the Legion</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Sunscorch Regent</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Sun Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Surge to Victory</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Surge to Victory</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Swarm Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Tainted Field</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Tainted Wood</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Talisman of Creativity</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Talisman of Resilience</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Talrand, Sky Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Taste of Death</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Temple of Epiphany</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Temple of Malady</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Temple of Mystery</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Temple of Silence</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Temple of the False God</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Temple of Triumph</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Tempting Contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Tempting Contract</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Terastodon</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Teysa, Envoy of Ghosts</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Theoretical Duplication</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Theoretical Duplication</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Thopter Engineer</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Thousand-Year Elixir</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Tivash, Gloom Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Tivash, Gloom Summoner</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Together Forever</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Tragic Arrogance</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Tranquil Thicket</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Traumatic Visions</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Treasure Cruise</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Triplicate Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Triplicate Titan</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Trudge Garden</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Trudge Garden</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Trygon Predator</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Unstable Obelisk</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Utter End</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Vampire Nighthawk</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Veinwitch Coven</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Veinwitch Coven</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Venser's Journal</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Verdant Sun's Avatar</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Veyran, Voice of Duality</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Veyran, Voice of Duality</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Victory Chimes</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Volcanic Vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Vow of Duty</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Wake the Past</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Wake the Past</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Well of Lost Dreams</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Wildfire Devils</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Willowdusk, Essence Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Willowdusk, Essence Seer</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Windborn Muse</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Witch's Clinic</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Witch's Clinic</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Yavimaya Coast</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Yedora, Grave Gardener</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Yedora, Grave Gardener</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Zaffai, Thunder Conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Zaffai, Thunder Conductor</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Zetalpa, Primal Dawn</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
